--- a/ipl-2020-21-1210595/rajasthan royals vs mumbai indians 45th match 1216541/Bowling2.xlsx
+++ b/ipl-2020-21-1210595/rajasthan royals vs mumbai indians 45th match 1216541/Bowling2.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,77 +487,112 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>45</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>11.25</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>6</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>30</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>7.50</v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>8</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Rahul Tewatia</v>
+      </c>
+      <c r="B6" t="str">
+        <v>4</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <v>25</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>6.25</v>
+      </c>
+      <c r="G6" t="str">
+        <v>8</v>
+      </c>
+      <c r="H6" t="str">
+        <v>2</v>
+      </c>
+      <c r="I6" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>